--- a/Documents/Formato de respuesta Planilla de Testing_S7.xlsx
+++ b/Documents/Formato de respuesta Planilla de Testing_S7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ing software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06802460-F6D1-44D4-BAD9-50ED2CDF73A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4652CCBC-FA1D-40D1-8F83-4A855F5BEBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16B45590-167A-432C-A614-8CF100223590}"/>
   </bookViews>
@@ -72,18 +72,9 @@
     <t>ReSprintear</t>
   </si>
   <si>
-    <t>Selección de fecha de entrada y tipo de habitación que deseo reservar</t>
-  </si>
-  <si>
     <t>EPICA1. HU1</t>
   </si>
   <si>
-    <t>Verificar la consulta de selección de fecha y tipo de habitacion</t>
-  </si>
-  <si>
-    <t>Se muestran las habitaciones según el tipo de habitacion seleccionada dentro de la fecha seleccionada</t>
-  </si>
-  <si>
     <t>EPICA1. HU2</t>
   </si>
   <si>
@@ -91,11 +82,6 @@
   </si>
   <si>
     <t>Verificar  qué habitaciones están disponibles para las fechas seleccionadas.</t>
-  </si>
-  <si>
-    <t>1. Navegar a la página de consulta de habitaciones disponibles
-2. Ingresar una fecha entrada.
-3. Realizar la consulta botón consultar.</t>
   </si>
   <si>
     <t>Se muestran las habitaciones disponibles para el rango de fechas especificado en formato de lista con la siguiente información mínima:
@@ -248,6 +234,20 @@
   </si>
   <si>
     <t>EPICA3. HU6</t>
+  </si>
+  <si>
+    <t>Selección de habitacion por capacid</t>
+  </si>
+  <si>
+    <t>Verificar la consulta de habitacion por cantidad maxima de huespedes</t>
+  </si>
+  <si>
+    <t>1. Navegar a la página de consulta de habitaciones disponibles
+2. Ingresar cantidad de huespedes
+3. Realizar la consulta botón consultar.</t>
+  </si>
+  <si>
+    <t>Se muestran las habitaciones que tengan la capacidad especificada de huespedes</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99F7DB-EDD2-4A39-9530-533720922F94}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,25 +730,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,25 +756,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,23 +834,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,23 +858,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,23 +882,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -906,23 +906,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,23 +930,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -954,23 +954,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -978,23 +978,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,24 +1072,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0daa353-f819-43d1-badf-ce69fea8800d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fecha_x0020_de_x0020_creaci_x00f3_n xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-    <TaxCatchAll xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" xsi:nil="true"/>
-    <Fechayhora xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1348,21 +1336,30 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0daa353-f819-43d1-badf-ce69fea8800d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fecha_x0020_de_x0020_creaci_x00f3_n xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
+    <TaxCatchAll xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" xsi:nil="true"/>
+    <Fechayhora xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="d0daa353-f819-43d1-badf-ce69fea8800d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9B7172E-4D5A-4580-933B-E1570C5DAF9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D11BA56-E0BE-482B-ACA3-5B7BEC1405D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d0daa353-f819-43d1-badf-ce69fea8800d"/>
-    <ds:schemaRef ds:uri="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1387,9 +1384,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D11BA56-E0BE-482B-ACA3-5B7BEC1405D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9B7172E-4D5A-4580-933B-E1570C5DAF9E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d0daa353-f819-43d1-badf-ce69fea8800d"/>
+    <ds:schemaRef ds:uri="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>